--- a/computer_skills/各种快捷键总结.xlsx
+++ b/computer_skills/各种快捷键总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="pycharm-vim" sheetId="3" r:id="rId3"/>
     <sheet name="XMind" sheetId="5" r:id="rId4"/>
     <sheet name="Excel" sheetId="4" r:id="rId5"/>
+    <sheet name="PS" sheetId="6" r:id="rId6"/>
+    <sheet name="PR" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="205">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,6 +688,152 @@
   </si>
   <si>
     <t>插入外框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（个人喜好）快捷键整理，作者：李英俊小朋友，仅供参考，基于PS 2014 CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭PS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当滚轮【没有|有】设置为缩放时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下滚动|快速缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放|上下滚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速缩放|快速上下滚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右滚动|缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放|左右滚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左键单击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择油漆桶工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给工作面上色</t>
+  </si>
+  <si>
+    <t>快捷键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指各个工具的快捷键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换工具的子工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换前景色和背景色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原前景色和背景色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首选项-常规</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新建文档界面，按住alt不松开，取消键会变成复位键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建文档-复位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像-图像大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件重命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（个人喜好）快捷键整理，作者：李英俊小朋友，仅供参考，基于PR 2014 CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间轴 前进和后退</t>
+  </si>
+  <si>
+    <t>时间轴 缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>←→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动序列播放帧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↑↓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示当前目标切换轨道的所对应的素材的首和尾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -693,7 +841,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,6 +854,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -729,11 +884,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -771,7 +923,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -779,6 +943,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -798,7 +1030,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1053,262 +1285,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="13"/>
+    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.75" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F7" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D8" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G13" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
+      <c r="F16" s="13">
         <v>1</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
+      <c r="F17" s="13">
         <v>2</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="3" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G20" s="13" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1323,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1342,27 +1550,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1373,37 +1581,40 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1411,10 +1622,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1422,10 +1633,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1433,13 +1644,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1447,10 +1655,13 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1458,35 +1669,35 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1494,10 +1705,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1505,10 +1716,10 @@
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1516,46 +1727,46 @@
         <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
+    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="1" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1563,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1574,10 +1785,10 @@
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1585,21 +1796,21 @@
         <v>3</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -1607,10 +1818,10 @@
         <v>3</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
@@ -1618,10 +1829,10 @@
         <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
@@ -1629,10 +1840,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
@@ -1640,10 +1851,10 @@
         <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
@@ -1651,32 +1862,32 @@
         <v>3</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" s="2" t="s">
+    <row r="29" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
@@ -1684,43 +1895,43 @@
         <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C32" s="2" t="s">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="2" t="s">
+    <row r="34" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
@@ -1728,90 +1939,87 @@
         <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="8" t="s">
+    <row r="39" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1" t="s">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G41" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="2" t="s">
+    <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="13"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="F43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="16"/>
+    </row>
+    <row r="44" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
@@ -1822,48 +2030,48 @@
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="2" t="s">
+    <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="8" t="s">
+    <row r="49" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F50" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G50" s="7" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="51" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1874,13 +2082,10 @@
         <v>83</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1891,34 +2096,34 @@
         <v>83</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
+    <row r="54" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
         <v>4</v>
@@ -1927,16 +2132,33 @@
         <v>83</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G41:G43"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1947,304 +2169,318 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="36.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="5"/>
+    <col min="1" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="17.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="5" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="10" t="s">
+    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
+    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C10" s="5" t="s">
+    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C11" s="5" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D13" s="5" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="5" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="5" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D21" s="10" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="10" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="10" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="10" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="10" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2261,91 +2497,105 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="9" style="12"/>
-    <col min="9" max="9" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="12"/>
+    <col min="1" max="8" width="9" style="11"/>
+    <col min="9" max="9" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="12" t="s">
+    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="12" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2362,89 +2612,103 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9" style="6"/>
-    <col min="6" max="6" width="10.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="92" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="6"/>
+    <col min="1" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="92" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6" t="s">
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2457,4 +2721,700 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="44.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/computer_skills/各种快捷键总结.xlsx
+++ b/computer_skills/各种快捷键总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="218">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -699,10 +699,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关闭PS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>滚轮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -786,10 +782,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首选项-常规</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在新建文档界面，按住alt不松开，取消键会变成复位键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -834,6 +826,66 @@
   </si>
   <si>
     <t>显示当前目标切换轨道的所对应的素材的首和尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储为Web所用格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图层面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建图层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -937,80 +989,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1030,7 +1017,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1305,27 +1292,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1513,10 +1500,10 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F21" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1550,27 +1537,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1983,7 +1970,7 @@
       <c r="F41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1997,7 +1984,7 @@
       <c r="F42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="16"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -2006,7 +1993,7 @@
       <c r="F43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
@@ -2186,16 +2173,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="4" t="s">
         <v>157</v>
       </c>
@@ -2207,12 +2194,12 @@
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2512,16 +2499,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="11" t="s">
         <v>157</v>
       </c>
@@ -2533,12 +2520,12 @@
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2628,27 +2615,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2727,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2738,27 +2725,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2795,7 +2782,7 @@
         <v>169</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -2808,68 +2795,68 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="D6" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2878,18 +2865,18 @@
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2897,17 +2884,17 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>181</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2915,17 +2902,17 @@
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>184</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2935,10 +2922,10 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>187</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="H12" s="14"/>
     </row>
@@ -2949,10 +2936,10 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="H13" s="14"/>
     </row>
@@ -2965,10 +2952,10 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="H14" s="14"/>
     </row>
@@ -2982,10 +2969,10 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3002,88 +2989,143 @@
         <v>84</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>204</v>
+      </c>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="F18" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>206</v>
+      </c>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="F19" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>207</v>
+      </c>
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="F20" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="B22" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>4</v>
+      </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="F22" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>212</v>
+      </c>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="F23" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>215</v>
+      </c>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="D24" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>217</v>
+      </c>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3124,27 +3166,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="A1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
@@ -3176,10 +3218,10 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -3192,10 +3234,10 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H5" s="14"/>
     </row>
@@ -3205,10 +3247,10 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H6" s="14"/>
     </row>
@@ -3219,10 +3261,10 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H7" s="14"/>
     </row>

--- a/computer_skills/各种快捷键总结.xlsx
+++ b/computer_skills/各种快捷键总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="219">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -886,6 +886,10 @@
   </si>
   <si>
     <t>新建图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考链接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +897,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,6 +915,14 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -933,10 +945,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,9 +1005,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2601,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2659,6 +2676,9 @@
       <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="19" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
@@ -2705,8 +2725,11 @@
     <mergeCell ref="B2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2714,7 +2737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/computer_skills/各种快捷键总结.xlsx
+++ b/computer_skills/各种快捷键总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="1980" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="247">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -691,10 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（个人喜好）快捷键整理，作者：李英俊小朋友，仅供参考，基于PS 2014 CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -802,10 +798,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（个人喜好）快捷键整理，作者：李英俊小朋友，仅供参考，基于PR 2014 CC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时间轴 前进和后退</t>
   </si>
   <si>
@@ -890,6 +882,126 @@
   </si>
   <si>
     <t>参考链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左键单击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击图层小眼睛，隐藏其他图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次点击，恢复刚才隐藏的图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图层向下移动一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图层向上移动一层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图层移动到当前组的最下面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图层移动到当前组的最上面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左键拖动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以复制多个图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按屏幕大小缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等同于双击抓手工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按实际像素缩放（100%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等同于双击缩放工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓手工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩小工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放大工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（个人喜好）快捷键整理，作者：李英俊小朋友，仅供参考，基于PS 2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（个人喜好）快捷键整理，作者：李英俊小朋友，仅供参考，基于PR 2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图层编组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,7 +1009,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,6 +1039,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -949,7 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1008,6 +1129,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1015,6 +1148,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1309,27 +1510,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1517,10 +1718,10 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F21" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1554,27 +1755,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1987,7 +2188,7 @@
       <c r="F41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2001,7 +2202,7 @@
       <c r="F42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -2010,7 +2211,7 @@
       <c r="F43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="18"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
@@ -2190,16 +2391,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="4" t="s">
         <v>157</v>
       </c>
@@ -2211,12 +2412,12 @@
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2516,16 +2717,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="11" t="s">
         <v>157</v>
       </c>
@@ -2537,12 +2738,12 @@
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2618,7 +2819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -2632,27 +2833,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2677,7 +2878,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -2735,40 +2936,44 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="18"/>
+    <col min="7" max="7" width="34" style="18" customWidth="1"/>
+    <col min="8" max="8" width="53.5" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2792,6 +2997,7 @@
       <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -2802,10 +3008,10 @@
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -2818,68 +3024,68 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="D6" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2888,18 +3094,18 @@
         <v>3</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2907,17 +3113,17 @@
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>180</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2925,17 +3131,17 @@
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>183</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2945,10 +3151,10 @@
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="H12" s="14"/>
     </row>
@@ -2959,10 +3165,10 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>188</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>189</v>
       </c>
       <c r="H13" s="14"/>
     </row>
@@ -2975,10 +3181,10 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H14" s="14"/>
     </row>
@@ -2992,10 +3198,10 @@
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3012,7 +3218,7 @@
         <v>84</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H16" s="14"/>
     </row>
@@ -3025,10 +3231,10 @@
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H17" s="14"/>
     </row>
@@ -3041,10 +3247,10 @@
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H18" s="14"/>
     </row>
@@ -3059,10 +3265,10 @@
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="H19" s="14"/>
     </row>
@@ -3079,10 +3285,10 @@
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H20" s="14"/>
     </row>
@@ -3095,10 +3301,10 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H21" s="14"/>
     </row>
@@ -3113,10 +3319,10 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H22" s="14"/>
     </row>
@@ -3127,10 +3333,10 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H23" s="14"/>
     </row>
@@ -3144,24 +3350,199 @@
         <v>83</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G24" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H25" s="15"/>
+      <c r="G25" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H26" s="15"/>
+      <c r="B26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H27" s="15"/>
+      <c r="B27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H28" s="15"/>
+      <c r="B28" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F36" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C37" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>246</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3176,10 +3557,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3189,27 +3573,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
@@ -3241,10 +3625,10 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H4" s="14"/>
     </row>
@@ -3257,10 +3641,10 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H5" s="14"/>
     </row>
@@ -3270,10 +3654,10 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H6" s="14"/>
     </row>
@@ -3284,10 +3668,10 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H7" s="14"/>
     </row>

--- a/computer_skills/各种快捷键总结.xlsx
+++ b/computer_skills/各种快捷键总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="3030" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="264">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -925,10 +925,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>复制图层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以复制多个图层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1002,6 +998,78 @@
   </si>
   <si>
     <t>图层编组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开/关闭辅助线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪切图层到新的图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制图层到新的图层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消选区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择反向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示/隐藏辅助线、选区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前景色填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改羽化值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示/隐藏 标尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色填充</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1070,7 +1138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,6 +1207,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1510,27 +1581,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1755,27 +1826,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2188,7 +2259,7 @@
       <c r="F41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2202,7 +2273,7 @@
       <c r="F42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="20"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -2211,7 +2282,7 @@
       <c r="F43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="20"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
@@ -2391,16 +2462,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="4" t="s">
         <v>157</v>
       </c>
@@ -2412,12 +2483,12 @@
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2717,16 +2788,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="11" t="s">
         <v>157</v>
       </c>
@@ -2738,12 +2809,12 @@
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2833,27 +2904,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2939,10 +3010,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2953,27 +3024,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
@@ -3429,10 +3500,10 @@
         <v>226</v>
       </c>
       <c r="G30" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>227</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3440,97 +3511,101 @@
         <v>3</v>
       </c>
       <c r="F31" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="H31" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="G31" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31" s="22" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>233</v>
-      </c>
+      <c r="B32" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="18" t="s">
         <v>3</v>
       </c>
       <c r="F33" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>232</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="F34" s="18">
-        <v>0</v>
+      <c r="F34" s="23" t="s">
+        <v>231</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="C35" s="18"/>
       <c r="F35" s="18">
         <v>0</v>
       </c>
       <c r="G35" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="H35" s="15" t="s">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F37" s="18" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F36" s="18" t="s">
+      <c r="G37" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="G36" s="18" t="s">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="G38" s="18" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -3538,10 +3613,128 @@
         <v>3</v>
       </c>
       <c r="F39" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="G39" s="18" t="s">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>246</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G44" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="F48" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D49" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3573,27 +3766,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="A1" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>

--- a/computer_skills/各种快捷键总结.xlsx
+++ b/computer_skills/各种快捷键总结.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="266">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1070,6 +1070,14 @@
   </si>
   <si>
     <t>背景色填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整边缘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1138,7 +1146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1212,6 +1220,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1219,74 +1230,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1581,27 +1524,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1826,27 +1769,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2259,7 +2202,7 @@
       <c r="F41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="25" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2273,7 +2216,7 @@
       <c r="F42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="24"/>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -2282,7 +2225,7 @@
       <c r="F43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="24"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
@@ -2462,16 +2405,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="4" t="s">
         <v>157</v>
       </c>
@@ -2483,12 +2426,12 @@
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2788,16 +2731,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="11" t="s">
         <v>157</v>
       </c>
@@ -2809,12 +2752,12 @@
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2904,27 +2847,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3010,10 +2953,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3024,27 +2967,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
@@ -3726,7 +3669,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D49" s="20" t="s">
         <v>83</v>
       </c>
@@ -3735,6 +3678,20 @@
       </c>
       <c r="G49" s="18" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3756,7 +3713,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3766,27 +3723,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>

--- a/computer_skills/各种快捷键总结.xlsx
+++ b/computer_skills/各种快捷键总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
+    <workbookView xWindow="4035" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
@@ -2390,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2955,7 +2955,7 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>

--- a/computer_skills/各种快捷键总结.xlsx
+++ b/computer_skills/各种快捷键总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="6048" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Excel" sheetId="4" r:id="rId5"/>
     <sheet name="PS" sheetId="6" r:id="rId6"/>
     <sheet name="PR" sheetId="8" r:id="rId7"/>
+    <sheet name="AE" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="282">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1078,6 +1079,70 @@
   </si>
   <si>
     <t>调整边缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（个人喜好）快捷键整理，作者：李英俊小朋友，仅供参考，基于AE 2021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入素材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击也行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环：画笔、仿制图章、橡皮擦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环：roto笔刷、调整边缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环：人偶位置控点工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯色设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锚点居中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键帧缓入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键帧缓出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓动（缓入+缓出）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,7 +1211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,6 +1280,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1510,41 +1581,41 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="13"/>
-    <col min="5" max="5" width="10.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="13" customWidth="1"/>
     <col min="9" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1555,7 +1626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
@@ -1569,7 +1640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
@@ -1580,7 +1651,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="13" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E6" s="13" t="s">
         <v>15</v>
       </c>
@@ -1602,7 +1673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
@@ -1613,7 +1684,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="13" t="s">
         <v>115</v>
       </c>
@@ -1627,7 +1698,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
@@ -1641,7 +1712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
         <v>3</v>
       </c>
@@ -1655,7 +1726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" s="13" t="s">
         <v>4</v>
       </c>
@@ -1666,7 +1737,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" s="13" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1748,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
         <v>3</v>
       </c>
@@ -1691,7 +1762,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>3</v>
       </c>
@@ -1705,7 +1776,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>3</v>
       </c>
@@ -1719,7 +1790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" s="13" t="s">
         <v>108</v>
       </c>
@@ -1730,7 +1801,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F21" s="13" t="s">
         <v>193</v>
       </c>
@@ -1756,40 +1827,40 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
     <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="42.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1800,7 +1871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
@@ -1814,7 +1885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1825,7 +1896,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1836,7 +1907,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1847,7 +1918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1858,7 +1929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1869,7 +1940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1883,7 +1954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1894,7 +1965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1908,7 +1979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
@@ -1919,7 +1990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1930,7 +2001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1941,7 +2012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1952,7 +2023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1963,7 +2034,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
@@ -1974,7 +2045,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1988,7 +2059,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>3</v>
       </c>
@@ -1999,7 +2070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
@@ -2010,7 +2081,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>3</v>
       </c>
@@ -2021,7 +2092,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
@@ -2032,7 +2103,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
@@ -2043,7 +2114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
@@ -2054,7 +2125,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
@@ -2065,7 +2136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
@@ -2076,7 +2147,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
@@ -2087,7 +2158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
@@ -2098,7 +2169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>3</v>
       </c>
@@ -2109,7 +2180,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
@@ -2120,7 +2191,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
@@ -2131,7 +2202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
         <v>4</v>
       </c>
@@ -2142,7 +2213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>74</v>
       </c>
@@ -2153,7 +2224,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
@@ -2164,7 +2235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
@@ -2175,10 +2246,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>3</v>
       </c>
@@ -2192,7 +2263,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
@@ -2202,11 +2273,11 @@
       <c r="F41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
@@ -2216,18 +2287,18 @@
       <c r="F42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="25"/>
-    </row>
-    <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="25"/>
-    </row>
-    <row r="44" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>3</v>
       </c>
@@ -2241,7 +2312,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>3</v>
       </c>
@@ -2255,7 +2326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
@@ -2269,7 +2340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>3</v>
       </c>
@@ -2277,9 +2348,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>3</v>
       </c>
@@ -2293,7 +2364,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>3</v>
       </c>
@@ -2307,7 +2378,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>3</v>
       </c>
@@ -2324,7 +2395,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>3</v>
       </c>
@@ -2341,9 +2412,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>4</v>
       </c>
@@ -2360,7 +2431,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>4</v>
       </c>
@@ -2390,31 +2461,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="36.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="4" t="s">
         <v>157</v>
       </c>
@@ -2422,16 +2493,16 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2442,7 +2513,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
@@ -2456,7 +2527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
@@ -2470,7 +2541,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
@@ -2481,8 +2552,8 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>142</v>
       </c>
@@ -2493,7 +2564,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>142</v>
       </c>
@@ -2507,9 +2578,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
@@ -2520,7 +2591,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
@@ -2531,7 +2602,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>3</v>
       </c>
@@ -2545,7 +2616,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
         <v>83</v>
       </c>
@@ -2556,7 +2627,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>3</v>
       </c>
@@ -2570,7 +2641,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
@@ -2584,7 +2655,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>3</v>
       </c>
@@ -2601,7 +2672,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>3</v>
       </c>
@@ -2615,7 +2686,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>3</v>
       </c>
@@ -2630,7 +2701,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D22" s="9" t="s">
         <v>83</v>
       </c>
@@ -2644,7 +2715,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>3</v>
       </c>
@@ -2661,7 +2732,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>3</v>
       </c>
@@ -2675,7 +2746,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>3</v>
       </c>
@@ -2689,7 +2760,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>3</v>
       </c>
@@ -2722,25 +2793,25 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="9" style="11"/>
     <col min="9" max="9" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="11" t="s">
         <v>157</v>
       </c>
@@ -2748,16 +2819,16 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2768,7 +2839,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
@@ -2782,7 +2853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
@@ -2793,7 +2864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
@@ -2807,7 +2878,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
@@ -2837,37 +2908,37 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="10.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="5" customWidth="1"/>
     <col min="8" max="8" width="92" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2878,7 +2949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
@@ -2895,7 +2966,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
@@ -2909,7 +2980,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
@@ -2920,7 +2991,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>3</v>
       </c>
@@ -2959,35 +3030,35 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="9" style="18"/>
     <col min="7" max="7" width="34" style="18" customWidth="1"/>
-    <col min="8" max="8" width="53.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.44140625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2998,7 +3069,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
@@ -3013,7 +3084,7 @@
       </c>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
         <v>3</v>
@@ -3029,7 +3100,7 @@
       </c>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12" t="s">
         <v>3</v>
@@ -3047,7 +3118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="D6" s="12" t="s">
@@ -3064,7 +3135,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -3082,7 +3153,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
@@ -3102,7 +3173,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12" t="s">
         <v>3</v>
@@ -3122,7 +3193,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -3140,7 +3211,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -3158,7 +3229,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -3172,7 +3243,7 @@
       </c>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -3186,7 +3257,7 @@
       </c>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
         <v>3</v>
@@ -3202,7 +3273,7 @@
       </c>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
@@ -3218,7 +3289,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
         <v>3</v>
@@ -3236,7 +3307,7 @@
       </c>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="16" t="s">
         <v>3</v>
@@ -3252,7 +3323,7 @@
       </c>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="16" t="s">
         <v>3</v>
@@ -3268,7 +3339,7 @@
       </c>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="16" t="s">
         <v>3</v>
@@ -3286,7 +3357,7 @@
       </c>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="16" t="s">
         <v>3</v>
@@ -3306,7 +3377,7 @@
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="16" t="s">
         <v>3</v>
@@ -3322,7 +3393,7 @@
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="16" t="s">
         <v>3</v>
@@ -3340,7 +3411,7 @@
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="16"/>
       <c r="C23" s="12"/>
@@ -3354,7 +3425,7 @@
       </c>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="16" t="s">
         <v>3</v>
@@ -3371,7 +3442,7 @@
       </c>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="18" t="s">
         <v>4</v>
       </c>
@@ -3385,7 +3456,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>3</v>
       </c>
@@ -3396,7 +3467,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>3</v>
       </c>
@@ -3407,7 +3478,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="18" t="s">
         <v>3</v>
       </c>
@@ -3421,7 +3492,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>3</v>
       </c>
@@ -3435,7 +3506,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="18" t="s">
         <v>4</v>
       </c>
@@ -3449,7 +3520,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="18" t="s">
         <v>3</v>
       </c>
@@ -3463,7 +3534,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="20" t="s">
         <v>3</v>
       </c>
@@ -3478,7 +3549,7 @@
       </c>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
         <v>3</v>
       </c>
@@ -3489,7 +3560,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>3</v>
       </c>
@@ -3500,7 +3571,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>3</v>
       </c>
@@ -3515,7 +3586,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>3</v>
       </c>
@@ -3532,7 +3603,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F37" s="18" t="s">
         <v>238</v>
       </c>
@@ -3540,7 +3611,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C38" s="18" t="s">
         <v>4</v>
       </c>
@@ -3551,7 +3622,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="18" t="s">
         <v>3</v>
       </c>
@@ -3562,7 +3633,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="18" t="s">
         <v>3</v>
       </c>
@@ -3573,7 +3644,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
         <v>3</v>
       </c>
@@ -3584,7 +3655,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="20" t="s">
         <v>3</v>
       </c>
@@ -3595,7 +3666,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="20" t="s">
         <v>3</v>
       </c>
@@ -3606,7 +3677,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="20" t="s">
         <v>3</v>
       </c>
@@ -3617,7 +3688,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>3</v>
       </c>
@@ -3631,7 +3702,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="20" t="s">
         <v>3</v>
       </c>
@@ -3645,7 +3716,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="20"/>
       <c r="C47" s="20" t="s">
         <v>4</v>
@@ -3657,7 +3728,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="20" t="s">
         <v>3</v>
       </c>
@@ -3669,7 +3740,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D49" s="20" t="s">
         <v>83</v>
       </c>
@@ -3680,7 +3751,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="24" t="s">
         <v>3</v>
       </c>
@@ -3712,38 +3783,38 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G4" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
@@ -3754,7 +3825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
@@ -3768,7 +3839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -3782,7 +3853,7 @@
       </c>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
@@ -3798,7 +3869,7 @@
       </c>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="D6" s="13"/>
@@ -3811,7 +3882,7 @@
       </c>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -3825,7 +3896,7 @@
       </c>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -3835,7 +3906,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -3845,7 +3916,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -3855,7 +3926,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -3865,7 +3936,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -3875,7 +3946,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -3885,7 +3956,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -3895,7 +3966,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -3905,7 +3976,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -3915,7 +3986,7 @@
       <c r="G16" s="13"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -3925,7 +3996,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3935,7 +4006,7 @@
       <c r="G18" s="13"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -3945,7 +4016,7 @@
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3955,7 +4026,7 @@
       <c r="G20" s="13"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -3965,7 +4036,7 @@
       <c r="G21" s="13"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -3975,7 +4046,7 @@
       <c r="G22" s="13"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -3985,7 +4056,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -3995,16 +4066,16 @@
       <c r="G24" s="13"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H28" s="15"/>
     </row>
   </sheetData>
@@ -4016,4 +4087,250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/computer_skills/各种快捷键总结.xlsx
+++ b/computer_skills/各种快捷键总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6048" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
+    <workbookView xWindow="7056" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="windows" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="284">
   <si>
     <t>组合</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1143,6 +1143,14 @@
   </si>
   <si>
     <t>缓动（缓入+缓出）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预合成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1211,7 +1219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1280,6 +1288,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1595,27 +1606,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
@@ -1840,27 +1851,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2273,7 +2284,7 @@
       <c r="F41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="27" t="s">
+      <c r="G41" s="28" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2287,7 +2298,7 @@
       <c r="F42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G42" s="27"/>
+      <c r="G42" s="28"/>
     </row>
     <row r="43" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
@@ -2296,7 +2307,7 @@
       <c r="F43" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G43" s="27"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
@@ -2476,16 +2487,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="4" t="s">
         <v>157</v>
       </c>
@@ -2497,12 +2508,12 @@
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2802,16 +2813,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="11" t="s">
         <v>157</v>
       </c>
@@ -2823,12 +2834,12 @@
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="11" t="s">
         <v>1</v>
       </c>
@@ -2918,27 +2929,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
@@ -3038,27 +3049,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
@@ -3794,27 +3805,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
@@ -4094,10 +4105,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4113,27 +4124,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="25" t="s">
         <v>1</v>
       </c>
@@ -4322,6 +4333,20 @@
       </c>
       <c r="G15" s="26" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
